--- a/document/excel_upload_자료/TBL_EXP_FIN_ANAL_BASIS02.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_FIN_ANAL_BASIS02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\두견\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDFDD24-7143-47C8-96F4-AD86929D6DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F824D1D-7FC8-4FEF-A5FC-00B2AB655407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Table명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,20 +77,50 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_EXP_FIN_ANAL_BASIS02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업목적 연번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업목적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25FC</t>
+  </si>
+  <si>
+    <t>일용잡화 및 식자재 프렌차이즈 사업</t>
+  </si>
+  <si>
+    <t>일용잡화 및 식자재 유통업</t>
+  </si>
+  <si>
+    <t>일용잡화 및 식자재 도,소매업</t>
+  </si>
+  <si>
+    <t>일용잡화 및 식자재 물류업</t>
+  </si>
+  <si>
     <t>BUYER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BUSINESS_PURPOSE</t>
-  </si>
-  <si>
-    <t>1/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBL_EXP_FIN_ANAL_BASIS02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -302,17 +332,17 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,29 +678,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153AC9D0-4242-43A7-80D5-A7E4643E8D4D}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="29.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="24">
@@ -691,13 +721,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -708,25 +738,69 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>11</v>
+      <c r="A4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>11</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/document/excel_upload_자료/TBL_EXP_FIN_ANAL_BASIS02.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_FIN_ANAL_BASIS02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\두견\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\git\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F824D1D-7FC8-4FEF-A5FC-00B2AB655407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D891736-83B9-45F1-BD25-B72D9E93C4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Table명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,21 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25FC</t>
-  </si>
-  <si>
-    <t>일용잡화 및 식자재 프렌차이즈 사업</t>
-  </si>
-  <si>
-    <t>일용잡화 및 식자재 유통업</t>
-  </si>
-  <si>
-    <t>일용잡화 및 식자재 도,소매업</t>
-  </si>
-  <si>
-    <t>일용잡화 및 식자재 물류업</t>
-  </si>
-  <si>
     <t>BUYER_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,13 +107,47 @@
   <si>
     <t>BUSINESS_PURPOSE</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star1009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.식자재 도,소매업</t>
+  </si>
+  <si>
+    <t>1.식자재 제조업</t>
+  </si>
+  <si>
+    <t>1.외식산업 컨설팅업</t>
+  </si>
+  <si>
+    <t>1.실내장식업</t>
+  </si>
+  <si>
+    <t>1.음식 및 숙박업</t>
+  </si>
+  <si>
+    <t>1.부동산 임대업</t>
+  </si>
+  <si>
+    <t>1.각호와 관련된 수출입 및 무역업</t>
+  </si>
+  <si>
+    <t>1.각호와 관련된 프랜차이즈업</t>
+  </si>
+  <si>
+    <t>1.각호와 관련된 서비스업</t>
+  </si>
+  <si>
+    <t>1.위 각호와 관련된 부대사업 일체</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +216,12 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -298,7 +323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -343,6 +368,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153AC9D0-4242-43A7-80D5-A7E4643E8D4D}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -739,13 +767,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -761,46 +789,112 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
+      <c r="C6" s="15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
+      <c r="C7" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
+      <c r="C8" s="15" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
+      <c r="C9" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>9</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>10</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
